--- a/Documentation/Pokemon_learnset_rebalance/126_Magmar.xlsx
+++ b/Documentation/Pokemon_learnset_rebalance/126_Magmar.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stan ten Napel\Desktop\Overig\Pokémon ROM hacking\Changelog\Pokémon_learnset_rebalance\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60C7E315-3D26-42F5-97EC-9D781A1C25C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{942D9E72-0468-4D69-AA91-43092AD03A50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -372,9 +372,6 @@
     <t>Fire Punch</t>
   </si>
   <si>
-    <t>Flamethrower</t>
-  </si>
-  <si>
     <t>Headbutt</t>
   </si>
   <si>
@@ -397,6 +394,9 @@
   </si>
   <si>
     <t>Sludge Bomb</t>
+  </si>
+  <si>
+    <t>Heat Wave</t>
   </si>
 </sst>
 </file>
@@ -717,7 +717,7 @@
   <dimension ref="A1:I51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -749,7 +749,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D2" t="s">
         <v>12</v>
@@ -800,7 +800,7 @@
         <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D5" t="s">
         <v>18</v>
@@ -812,7 +812,7 @@
         <v>7</v>
       </c>
       <c r="I5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
@@ -820,7 +820,7 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
@@ -832,7 +832,7 @@
         <v>8</v>
       </c>
       <c r="I6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
@@ -840,7 +840,7 @@
         <v>26</v>
       </c>
       <c r="B7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D7" t="s">
         <v>22</v>
@@ -849,7 +849,7 @@
         <v>23</v>
       </c>
       <c r="F7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H7" t="s">
         <v>9</v>
@@ -877,7 +877,7 @@
         <v>36</v>
       </c>
       <c r="B9" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D9" t="s">
         <v>26</v>
@@ -908,7 +908,7 @@
         <v>46</v>
       </c>
       <c r="B11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D11" t="s">
         <v>30</v>
@@ -922,7 +922,7 @@
         <v>51</v>
       </c>
       <c r="B12" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="D12" t="s">
         <v>32</v>
@@ -931,7 +931,7 @@
         <v>33</v>
       </c>
       <c r="F12" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
@@ -939,7 +939,7 @@
         <v>56</v>
       </c>
       <c r="B13" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D13" t="s">
         <v>34</v>
@@ -1196,7 +1196,7 @@
         <v>97</v>
       </c>
       <c r="F44" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="45" spans="4:6" x14ac:dyDescent="0.35">
@@ -1255,7 +1255,7 @@
         <v>111</v>
       </c>
       <c r="F51" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>
